--- a/data/case1/15/Q2_14.xlsx
+++ b/data/case1/15/Q2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.19721064429140256</v>
+        <v>0.22802204078956834</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999268036674</v>
+        <v>-0.0059999999814408511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999332724911</v>
+        <v>-0.003999999983719249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.007999999879396924</v>
+        <v>-0.007999999970534688</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999315855064</v>
+        <v>-0.0029999999838885572</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999265394308</v>
+        <v>-0.0019999999834876547</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998316353533</v>
+        <v>-0.0099999999595117295</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998307009896</v>
+        <v>-0.0099999999583291199</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999253434986</v>
+        <v>-0.0019999999806139535</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999262179102</v>
+        <v>-0.0019999999794837464</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999144907363</v>
+        <v>-0.0029999999768399732</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999090459255</v>
+        <v>-0.020322428029923234</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999134734949</v>
+        <v>-0.003499999975599799</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999998624558089</v>
+        <v>-0.0079999999626396701</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999994793620317</v>
+        <v>-0.00099999998375999155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.033214529232235446</v>
+        <v>0.025306705869925672</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999386133283</v>
+        <v>-0.0019999999810922375</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999146118626</v>
+        <v>-0.003999999975077273</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.022239041468024912</v>
+        <v>-0.0039999999866799918</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999459912061</v>
+        <v>-0.066737003933084793</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999453641522</v>
+        <v>-0.0039999999801878516</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999448880885</v>
+        <v>-0.0039999999800564012</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999154826114</v>
+        <v>-0.0049999999794279049</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.036385430015075215</v>
+        <v>-0.032674708525368246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999722868367</v>
+        <v>-0.019999999931815005</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999182409027</v>
+        <v>-0.0024999999818593466</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999147232721</v>
+        <v>-0.0024999999815866758</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999059470142</v>
+        <v>-0.0019999999819866332</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998368937</v>
+        <v>-0.006999999966586401</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999208449228</v>
+        <v>0.012106449437590427</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.049347993642550492</v>
+        <v>-0.0069999999652399225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.029473409162964259</v>
+        <v>-0.0099999999561894981</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999998677728854</v>
+        <v>-0.003999999973768098</v>
       </c>
     </row>
   </sheetData>
